--- a/Assets/Roles ID.xlsx
+++ b/Assets/Roles ID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\TONX\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA27F32B-3FE9-4D5A-A9CE-57079BED8DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E3016E-70BE-4993-8FCF-F883631808C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{814C7422-745C-474F-A837-AE31BC6ADF7D}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15870" xr2:uid="{814C7422-745C-474F-A837-AE31BC6ADF7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
   <si>
     <t>Bodyguard</t>
   </si>
@@ -389,6 +389,9 @@
   <si>
     <t>SchrodingerCat</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workaholic</t>
   </si>
 </sst>
 </file>
@@ -823,7 +826,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1210,6 +1213,12 @@
       <c r="E15">
         <v>2000</v>
       </c>
+      <c r="G15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15">
+        <v>51600</v>
+      </c>
       <c r="J15" t="s">
         <v>92</v>
       </c>

--- a/Assets/Roles ID.xlsx
+++ b/Assets/Roles ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\TONX\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E3016E-70BE-4993-8FCF-F883631808C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B963AFC0-69A0-45E2-A7F9-309D560A9D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15870" xr2:uid="{814C7422-745C-474F-A837-AE31BC6ADF7D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
   <si>
     <t>Bodyguard</t>
   </si>
@@ -392,6 +392,10 @@
   </si>
   <si>
     <t>Workaholic</t>
+  </si>
+  <si>
+    <t>Hater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1239,6 +1243,12 @@
       <c r="E16">
         <v>1000</v>
       </c>
+      <c r="G16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16">
+        <v>51700</v>
+      </c>
       <c r="J16" t="s">
         <v>93</v>
       </c>
